--- a/out1.xlsx
+++ b/out1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\A\repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>sid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,19 +46,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>卷纸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可口可乐</t>
+    <t>orderID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中桶矿泉水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>output_time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,6 +77,13 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -97,8 +108,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -119,7 +136,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -381,15 +398,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="18.453125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -402,8 +422,14 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -416,10 +442,16 @@
       <c r="D2" t="s">
         <v>4</v>
       </c>
+      <c r="E2">
+        <v>65</v>
+      </c>
+      <c r="F2" s="2">
+        <v>45087</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -428,21 +460,13 @@
         <v>101</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>5</v>
-      </c>
-      <c r="B4">
         <v>6</v>
       </c>
-      <c r="C4">
-        <v>101</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
+      <c r="E3">
+        <v>65</v>
+      </c>
+      <c r="F3" s="2">
+        <v>45088</v>
       </c>
     </row>
   </sheetData>
